--- a/dokumentation/MassageTid arbetstidsfördelning.xlsx
+++ b/dokumentation/MassageTid arbetstidsfördelning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\IS-B-projekt\IS-B-projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\IS-B-projekt\IS-B-projekt\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873ED8C9-EEE1-409A-8E43-62BB783A79AF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3237EEE-0443-4CB3-A467-7E9F4697CDD9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
   <si>
     <t>Programmering</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>Iman</t>
+  </si>
+  <si>
+    <t>gitHub för projektet för at tvisa kodbidrag: https://github.com/avdpos/IS-B-projekt/graphs/contributors</t>
+  </si>
+  <si>
+    <t>avdpos</t>
+  </si>
+  <si>
+    <t>iihn</t>
+  </si>
+  <si>
+    <t>lekstrom</t>
+  </si>
+  <si>
+    <t>ronnysinjari</t>
   </si>
 </sst>
 </file>
@@ -736,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -749,12 +764,12 @@
     <col min="7" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -762,7 +777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
@@ -781,13 +796,22 @@
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -804,8 +828,14 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -819,8 +849,14 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -834,8 +870,14 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -850,7 +892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -862,7 +904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -871,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -883,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -892,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -901,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -922,7 +964,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>

--- a/dokumentation/MassageTid arbetstidsfördelning.xlsx
+++ b/dokumentation/MassageTid arbetstidsfördelning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\IS-B-projekt\IS-B-projekt\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3237EEE-0443-4CB3-A467-7E9F4697CDD9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC68323-59BB-45E3-AB34-B9FAB836B932}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1270,6 +1270,18 @@
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1373,9 +1385,21 @@
       <c r="A48" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
       <c r="F48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G48" s="4"/>
     </row>
@@ -1394,21 +1418,25 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>SUM(B38:B49)</f>
+        <v>13</v>
+      </c>
       <c r="C51">
         <f>SUM(C38:C49)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <f>SUM(D38:D49)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <f>SUM(E38:E49)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F51">
         <f>SUM(B51:E51)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1447,6 +1475,9 @@
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1550,9 +1581,23 @@
       <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B64">
+        <f>8+3+1+2.5</f>
+        <v>14.5</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="G64" s="4"/>
     </row>
@@ -1575,23 +1620,23 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>SUM(B54:B65)</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="C67">
         <f>SUM(C54:C65)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <f>SUM(D54:D65)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <f>SUM(E54:E65)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F67">
         <f>SUM(B67:E67)</f>
-        <v>0</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1632,8 +1677,22 @@
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="B71">
+        <f>B54+B38+B21+B4</f>
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <f>C54+C38+C21+C4</f>
+        <v>7.5</v>
+      </c>
+      <c r="D71">
+        <f>D54+D38+D21+D4</f>
+        <v>5.5</v>
+      </c>
+      <c r="E71">
+        <f>E54+E38+E21+E4</f>
+        <v>9.5</v>
+      </c>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,23 +1939,23 @@
       </c>
       <c r="B81" s="4">
         <f>B15+B32+B48+B64</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="C81" s="4">
-        <f>C15+C32+C48+C64</f>
-        <v>0</v>
+        <f>C15+C32+C48+D64</f>
+        <v>16</v>
       </c>
       <c r="D81" s="4">
         <f>D15+D32+D48+D64</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E81" s="4">
         <f>E15+E32+E48+E64</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F81">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>71</v>
       </c>
       <c r="G81" s="4"/>
     </row>
@@ -1906,23 +1965,23 @@
       </c>
       <c r="B82">
         <f>SUM(B71:B81)</f>
-        <v>4</v>
+        <v>32.5</v>
       </c>
       <c r="C82">
         <f t="shared" ref="C82:D82" si="17">SUM(C71:C81)</f>
-        <v>3.5</v>
+        <v>27</v>
       </c>
       <c r="D82">
         <f t="shared" si="17"/>
-        <v>3.5</v>
+        <v>26</v>
       </c>
       <c r="E82">
         <f t="shared" ref="E82:F82" si="18">SUM(E71:E81)</f>
-        <v>3.5</v>
+        <v>26</v>
       </c>
       <c r="F82">
         <f t="shared" si="18"/>
-        <v>14.5</v>
+        <v>84</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>16</v>

--- a/dokumentation/MassageTid arbetstidsfördelning.xlsx
+++ b/dokumentation/MassageTid arbetstidsfördelning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\IS-B-projekt\IS-B-projekt\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC68323-59BB-45E3-AB34-B9FAB836B932}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C3BA9-0EA5-4E5C-87C6-56E1870A53E3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1582,8 +1582,8 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <f>8+3+1+2.5</f>
-        <v>14.5</v>
+        <f>8+3+1+2.5+1</f>
+        <v>15.5</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>40.5</v>
+        <v>41.5</v>
       </c>
       <c r="G64" s="4"/>
     </row>
@@ -1620,7 +1620,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>SUM(B54:B65)</f>
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="C67">
         <f>SUM(C54:C65)</f>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="F67">
         <f>SUM(B67:E67)</f>
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B81" s="4">
         <f>B15+B32+B48+B64</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C81" s="4">
         <f>C15+C32+C48+D64</f>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="8"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G81" s="4"/>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B82">
         <f>SUM(B71:B81)</f>
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="C82">
         <f t="shared" ref="C82:D82" si="17">SUM(C71:C81)</f>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F82">
         <f t="shared" si="18"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>16</v>
